--- a/data/trans_orig/P15E_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Habitat-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>878</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5236</v>
+        <v>5691</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.182432247276841</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06096289276596119</v>
+        <v>0.06097002381966275</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3637211026429873</v>
+        <v>0.3952716240045462</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -762,19 +762,19 @@
         <v>6358</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3948</v>
+        <v>3883</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9357</v>
+        <v>9399</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2896107003324959</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1798367959754202</v>
+        <v>0.1768589176106729</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4262498803594292</v>
+        <v>0.4281508924262185</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -783,19 +783,19 @@
         <v>8985</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5679</v>
+        <v>5817</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12483</v>
+        <v>13131</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2471610188477344</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1562272013487665</v>
+        <v>0.1600210327598028</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3434129184798451</v>
+        <v>0.3612145648598159</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2621</v>
+        <v>2553</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05359808019429242</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1820623341204245</v>
+        <v>0.177296661518328</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -833,19 +833,19 @@
         <v>4160</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1886</v>
+        <v>2163</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6890</v>
+        <v>7181</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1895026629570898</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08591790753929156</v>
+        <v>0.09850967205945622</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3138556065189665</v>
+        <v>0.3270996446032692</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -854,19 +854,19 @@
         <v>4932</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2591</v>
+        <v>2594</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8126</v>
+        <v>8120</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1356755541854748</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07127051456711921</v>
+        <v>0.07135585757060965</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2235316689794896</v>
+        <v>0.2233685274829667</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>10999</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8195</v>
+        <v>8022</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12967</v>
+        <v>13091</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7639696725288666</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5692092372527943</v>
+        <v>0.557226736582932</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9007045449483736</v>
+        <v>0.9092938456656694</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -904,19 +904,19 @@
         <v>11435</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8623</v>
+        <v>8208</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14674</v>
+        <v>14457</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5208866367104144</v>
+        <v>0.5208866367104142</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3927824821666805</v>
+        <v>0.3738952019343115</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6684357274846969</v>
+        <v>0.6585545461063154</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -925,19 +925,19 @@
         <v>22435</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18771</v>
+        <v>18024</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26349</v>
+        <v>26212</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.6171634269667908</v>
+        <v>0.6171634269667907</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5163805403841</v>
+        <v>0.4958310003913228</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7248596255997047</v>
+        <v>0.7210905163925376</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>3531</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1304</v>
+        <v>1262</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5777</v>
+        <v>5855</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4220955705045282</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1558226384200901</v>
+        <v>0.1508739304722973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6905273634494038</v>
+        <v>0.6999036032711377</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1050,19 +1050,19 @@
         <v>6206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9468</v>
+        <v>9206</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2642077560276669</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1500132499192791</v>
+        <v>0.1501150504622977</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4031054070939437</v>
+        <v>0.3919548379296452</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -1071,19 +1071,19 @@
         <v>9737</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6021</v>
+        <v>6250</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13842</v>
+        <v>14314</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3056765038833369</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1890235138087891</v>
+        <v>0.1962072966245516</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4345605489738082</v>
+        <v>0.4493636516250503</v>
       </c>
     </row>
     <row r="9">
@@ -1113,19 +1113,19 @@
         <v>2109</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4786</v>
+        <v>5040</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08977266370763407</v>
+        <v>0.08977266370763405</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02156575218401686</v>
+        <v>0.02153893438180409</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2037695172588073</v>
+        <v>0.2145594358561105</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1134,19 +1134,19 @@
         <v>2109</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>521</v>
+        <v>665</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4725</v>
+        <v>5004</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.06619415026783149</v>
+        <v>0.06619415026783147</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01635740975736887</v>
+        <v>0.02086410223029743</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1483190762828396</v>
+        <v>0.1570867426246489</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>4835</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2589</v>
+        <v>2511</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7062</v>
+        <v>7104</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5779044294954716</v>
+        <v>0.5779044294954717</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3094726365505959</v>
+        <v>0.3000963967288625</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8441773615799097</v>
+        <v>0.8491260695277026</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -1184,19 +1184,19 @@
         <v>15174</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11585</v>
+        <v>11744</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18134</v>
+        <v>18215</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6460195802646994</v>
+        <v>0.6460195802646991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4932384380500542</v>
+        <v>0.5000056890729101</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7720529877298353</v>
+        <v>0.7754828830054875</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -1205,19 +1205,19 @@
         <v>20008</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16002</v>
+        <v>15062</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24013</v>
+        <v>23743</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6281293458488316</v>
+        <v>0.6281293458488317</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5023527304165536</v>
+        <v>0.4728557434925773</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7538316420790826</v>
+        <v>0.7453567737321488</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3623</v>
+        <v>3883</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3981524776706257</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7782312068734735</v>
+        <v>0.8342225894018273</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1330,19 +1330,19 @@
         <v>3705</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1419</v>
+        <v>1365</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7339</v>
+        <v>7002</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1524278311131788</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05837643923896964</v>
+        <v>0.05617247696159917</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3019348880935137</v>
+        <v>0.2880722149444223</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1351,19 +1351,19 @@
         <v>5558</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2545</v>
+        <v>2501</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9924</v>
+        <v>9867</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1919233552345362</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08789033806442811</v>
+        <v>0.08633950606791255</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3426575555446793</v>
+        <v>0.3406854639670046</v>
       </c>
     </row>
     <row r="13">
@@ -1393,19 +1393,19 @@
         <v>3362</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1233</v>
+        <v>1211</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6796</v>
+        <v>7095</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.138293715506636</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05073988088657501</v>
+        <v>0.04980581009558709</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2795993003833234</v>
+        <v>0.2919037782703904</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1414,19 +1414,19 @@
         <v>3361</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7307</v>
+        <v>7095</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1160656531077445</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04185384848716196</v>
+        <v>0.04192300579687749</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2522962937037356</v>
+        <v>0.2449646018493555</v>
       </c>
     </row>
     <row r="14">
@@ -1443,16 +1443,16 @@
         <v>2802</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1114</v>
+        <v>772</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>4655</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6018475223293744</v>
+        <v>0.6018475223293743</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2393483584984133</v>
+        <v>0.1657759837687449</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1464,19 +1464,19 @@
         <v>17240</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13202</v>
+        <v>13352</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20525</v>
+        <v>20409</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.709278453380185</v>
+        <v>0.7092784533801851</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5431502409095831</v>
+        <v>0.5493058786846734</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8443979773263675</v>
+        <v>0.8396261458553703</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -1485,19 +1485,19 @@
         <v>20042</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15726</v>
+        <v>15825</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24091</v>
+        <v>23863</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6920109916577194</v>
+        <v>0.6920109916577192</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5429784596182895</v>
+        <v>0.5464015760144612</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.831824054563728</v>
+        <v>0.823933411868247</v>
       </c>
     </row>
     <row r="15">
@@ -1589,19 +1589,19 @@
         <v>5699</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2855</v>
+        <v>2979</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8210</v>
+        <v>8364</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5333907223255965</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2671755328658069</v>
+        <v>0.2788139470867487</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7683550163271237</v>
+        <v>0.7827678451404904</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1610,19 +1610,19 @@
         <v>7833</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4712</v>
+        <v>4765</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11518</v>
+        <v>11333</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4068073653195333</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2447045625831118</v>
+        <v>0.2474707873009725</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5981609740500174</v>
+        <v>0.5885521001237002</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1631,19 +1631,19 @@
         <v>13533</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9774</v>
+        <v>9778</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17950</v>
+        <v>17913</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.451980779978952</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3264353367423964</v>
+        <v>0.326552933880023</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5994993678156993</v>
+        <v>0.5982604831188784</v>
       </c>
     </row>
     <row r="17">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4672</v>
+        <v>4112</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1252474415178591</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4372086964333297</v>
+        <v>0.3848466996749511</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4085</v>
+        <v>4773</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04469667059348522</v>
+        <v>0.04469667059348523</v>
       </c>
       <c r="V17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1364346108704974</v>
+        <v>0.1594107012949206</v>
       </c>
     </row>
     <row r="18">
@@ -1723,19 +1723,19 @@
         <v>3647</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1542</v>
+        <v>1298</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6640</v>
+        <v>6295</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3413618361565444</v>
+        <v>0.3413618361565445</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1443264434034882</v>
+        <v>0.1214569265180013</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6214144886685502</v>
+        <v>0.5891512370689548</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -1744,19 +1744,19 @@
         <v>11423</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7738</v>
+        <v>7923</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14544</v>
+        <v>14491</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5931926346804667</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4018390259499824</v>
+        <v>0.4114478998762995</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7552954374168879</v>
+        <v>0.7525292126990277</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>26</v>
@@ -1765,19 +1765,19 @@
         <v>15070</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10867</v>
+        <v>11067</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>18957</v>
+        <v>19395</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5033225494275627</v>
+        <v>0.5033225494275628</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3629305962328788</v>
+        <v>0.3696214001561809</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6331213059164492</v>
+        <v>0.6477598075161149</v>
       </c>
     </row>
     <row r="19">
@@ -1869,19 +1869,19 @@
         <v>13711</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9456</v>
+        <v>9014</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19706</v>
+        <v>18890</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3598254527762362</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2481653996792983</v>
+        <v>0.236564874111348</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.517164079978138</v>
+        <v>0.4957579479211308</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>48</v>
@@ -1890,19 +1890,19 @@
         <v>24102</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18665</v>
+        <v>18476</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30632</v>
+        <v>30333</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2707987834328629</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2097092001973117</v>
+        <v>0.2075850412522814</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3441625189579326</v>
+        <v>0.3408007696185565</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>68</v>
@@ -1911,19 +1911,19 @@
         <v>37813</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30246</v>
+        <v>29948</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>45898</v>
+        <v>45596</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2974867363998938</v>
+        <v>0.2974867363998939</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2379555517531751</v>
+        <v>0.2356097560646251</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3610915057779139</v>
+        <v>0.3587216529417819</v>
       </c>
     </row>
     <row r="21">
@@ -1940,19 +1940,19 @@
         <v>2110</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5231</v>
+        <v>5252</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05537376340589534</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01729937671840832</v>
+        <v>0.01755410201406675</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1372761964041826</v>
+        <v>0.1378445680122045</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -1961,19 +1961,19 @@
         <v>9630</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6055</v>
+        <v>5745</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14800</v>
+        <v>14329</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1081998253671151</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06802546767713892</v>
+        <v>0.06454395650963943</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1662875658178871</v>
+        <v>0.160989634207688</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>23</v>
@@ -1982,19 +1982,19 @@
         <v>11740</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7719</v>
+        <v>7189</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17814</v>
+        <v>16998</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.09236390263235722</v>
+        <v>0.09236390263235723</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06072569621617335</v>
+        <v>0.05655463422704566</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1401488082025733</v>
+        <v>0.1337298128095875</v>
       </c>
     </row>
     <row r="22">
@@ -2011,19 +2011,19 @@
         <v>22283</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16445</v>
+        <v>16839</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26995</v>
+        <v>27215</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5848007838178685</v>
+        <v>0.5848007838178686</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.431573386854169</v>
+        <v>0.4419309500669605</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7084643805379055</v>
+        <v>0.7142238778586347</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>104</v>
@@ -2032,19 +2032,19 @@
         <v>55272</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>48003</v>
+        <v>48615</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61531</v>
+        <v>61589</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.621001391200022</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5393378846593878</v>
+        <v>0.5462108746490849</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6913260718770544</v>
+        <v>0.6919747140118749</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>140</v>
@@ -2053,19 +2053,19 @@
         <v>77555</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>68893</v>
+        <v>70310</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>85647</v>
+        <v>86749</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6101493609677489</v>
+        <v>0.610149360967749</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5420027336758877</v>
+        <v>0.5531554003555508</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6738101538921515</v>
+        <v>0.6824838258778761</v>
       </c>
     </row>
     <row r="23">
